--- a/data/instance/20/schedule_8.xlsx
+++ b/data/instance/20/schedule_8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,24 +402,22 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SQ974</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.525</v>
+        <v>0.01180555555555556</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>F36</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -432,24 +430,22 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BR226</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.53125</v>
+        <v>0.02638888888888889</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.5520833333333334</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,20 +458,18 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TR992</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.5319444444444444</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -492,24 +486,22 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IX681</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.5381944444444444</v>
+        <v>0.02430555555555556</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -522,20 +514,18 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MI350</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.5361111111111111</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -552,20 +542,18 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MI754</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.5354166666666667</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -582,24 +570,22 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TR634</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.5361111111111111</v>
+        <v>0.00625</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.03125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -612,24 +598,22 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6E52S</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.5423611111111111</v>
+        <v>0.02152777777777778</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.5659722222222222</v>
+        <v>0.04305555555555556</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>F40</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -642,24 +626,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6E44S</t>
-        </is>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.05486111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -672,24 +654,22 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MH606</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.0125</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -702,24 +682,22 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8M232</t>
-        </is>
+      <c r="B12" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.55</v>
+        <v>0.03263888888888889</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -732,24 +710,22 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>EK404</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -762,20 +738,18 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MI640</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.01875</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -792,24 +766,22 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SQ184</t>
-        </is>
+      <c r="B15" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.55625</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -822,24 +794,22 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SQ326</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.01527777777777778</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -852,24 +822,22 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TR904</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.5569444444444445</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -882,24 +850,22 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3K557</t>
-        </is>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.5625</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -912,24 +878,22 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GA831</t>
-        </is>
+      <c r="B19" t="n">
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.5659722222222222</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.08402777777777778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -942,20 +906,18 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SQ622</t>
-        </is>
+      <c r="B20" t="n">
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.5659722222222222</v>
+        <v>0.05</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.07152777777777777</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -972,20 +934,18 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SQ634</t>
-        </is>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.5659722222222222</v>
+        <v>0.04236111111111111</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -999,6 +959,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/instance/20/schedule_8.xlsx
+++ b/data/instance/20/schedule_8.xlsx
@@ -406,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.01180555555555556</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.03611111111111111</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,14 +434,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.02638888888888889</v>
+        <v>0.004861111111111111</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.03125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -462,18 +462,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.01597222222222222</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03680555555555556</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -490,14 +490,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.02430555555555556</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>F30</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -518,18 +518,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04097222222222222</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -546,18 +546,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.009027777777777777</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.05694444444444444</v>
+        <v>0.03611111111111111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -574,14 +574,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.00625</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.03125</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -602,18 +602,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.02152777777777778</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.04305555555555556</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,18 +630,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.03402777777777777</v>
+        <v>0.02430555555555556</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.05486111111111111</v>
+        <v>0.04791666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.0125</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.03611111111111111</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.025</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.05416666666666667</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F51</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,14 +714,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.02916666666666667</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.01875</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.01944444444444444</v>
+        <v>0.01527777777777778</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03680555555555556</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,18 +798,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.01527777777777778</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.07222222222222222</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,18 +854,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.05138888888888889</v>
+        <v>0.06527777777777778</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.07222222222222222</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.06319444444444444</v>
+        <v>0.06527777777777778</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.08402777777777778</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.05</v>
+        <v>0.05486111111111111</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.07152777777777777</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,18 +938,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.04236111111111111</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.08194444444444444</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
